--- a/data/trans_orig/Q02D_LAB-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_LAB-Clase-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>5.18075339116257</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.781943112866057</v>
+        <v>6.78194311286606</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>4.676664137696029</v>
@@ -681,7 +681,7 @@
         <v>8.436951103432557</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>7.804082777411437</v>
+        <v>7.804082777411436</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>3.762074158050338</v>
@@ -693,7 +693,7 @@
         <v>7.113941728427768</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>7.364609323520429</v>
+        <v>7.36460932352043</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.52178753504962</v>
+        <v>2.486010412242109</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.500511795525334</v>
+        <v>3.531047980301027</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.467692240451722</v>
+        <v>4.501919775392739</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.079562959393463</v>
+        <v>4.988021624913613</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.016566039556958</v>
+        <v>4.037118916585201</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.636481638095835</v>
+        <v>5.629572789447852</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.470594170287354</v>
+        <v>7.531211913062786</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.536179892916555</v>
+        <v>6.491543129962175</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.351485319682491</v>
+        <v>3.35748304256877</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.761191082759106</v>
+        <v>4.797478971258232</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6.410311211579613</v>
+        <v>6.440199204976592</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>6.238188489811971</v>
+        <v>6.26291348529395</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.61968437836961</v>
+        <v>3.569329120675308</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.506555882551734</v>
+        <v>4.508678107687984</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.120863853602804</v>
+        <v>6.024849979546845</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.374782045798229</v>
+        <v>9.869797095589744</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.547484861117819</v>
+        <v>5.486189452887874</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.856321752592664</v>
+        <v>6.90414222725222</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.633084498674958</v>
+        <v>9.669584514573577</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.09009853170328</v>
+        <v>10.1285774506401</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.329477627945404</v>
+        <v>4.283724467375528</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5.598969064475556</v>
+        <v>5.592646276344171</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7.860709929220865</v>
+        <v>7.922492494403929</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>8.893197583115235</v>
+        <v>9.021882184518075</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>7.711987622978157</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>6.684036369001157</v>
+        <v>6.684036369001156</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.49587746332933</v>
+        <v>2.546562453890566</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.984639759441406</v>
+        <v>3.960564615038486</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.251497590692606</v>
+        <v>5.192943060945534</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.033588415431918</v>
+        <v>3.009382126547238</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>4.949958779187684</v>
+        <v>4.866865499399803</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.134172833461892</v>
+        <v>6.133026886477614</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>8.075801931017734</v>
+        <v>8.086053442504769</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>6.675835622781486</v>
+        <v>6.622716364386891</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>4.196589920865549</v>
+        <v>4.228362267412264</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5.344091992920639</v>
+        <v>5.291831628096566</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7.090920281658088</v>
+        <v>7.027573399773646</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>5.410402637023456</v>
+        <v>5.491609924350834</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.825964343679297</v>
+        <v>3.832685699166095</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.211994898135125</v>
+        <v>5.190606872697856</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.808509342530913</v>
+        <v>6.74612743972972</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.317733289134162</v>
+        <v>4.957728788182817</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>6.547651194641359</v>
+        <v>6.466611596252359</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.277814588260923</v>
+        <v>7.366594249296603</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>9.967720715350259</v>
+        <v>9.928835304143339</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>11.39451866549381</v>
+        <v>11.39555640990999</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>5.390147392898907</v>
+        <v>5.365811944144422</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.182794677578597</v>
+        <v>6.214257967104267</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8.439686942124579</v>
+        <v>8.390663336502788</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>8.889387230248257</v>
+        <v>9.074985999493512</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.8501737256063</v>
+        <v>2.831486774198939</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.610429252541779</v>
+        <v>4.505588223903261</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.752548138758718</v>
+        <v>5.769972317054123</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.356470165470935</v>
+        <v>4.27870586268201</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.070130568230646</v>
+        <v>3.958002864885382</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.261761593149245</v>
+        <v>5.221283491754056</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.12872912529387</v>
+        <v>5.978052738432394</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.07919918484609</v>
+        <v>6.866337442396808</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.43147040580271</v>
+        <v>3.442984604845169</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4.991125491630253</v>
+        <v>4.944487608708243</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6.04171836880546</v>
+        <v>6.018437409974745</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>5.519021589153819</v>
+        <v>5.414391004380483</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.330422645245188</v>
+        <v>4.244954892292536</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.694041416788803</v>
+        <v>5.645580382770876</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.792791758533001</v>
+        <v>7.737823710436926</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.16381835157403</v>
+        <v>10.08628433596953</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.20901333783128</v>
+        <v>6.059519649788347</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.565637099413327</v>
+        <v>6.570643727958991</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.998674947670356</v>
+        <v>8.812073337269275</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>14.6418424911777</v>
+        <v>14.16687697356806</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.682091952757231</v>
+        <v>4.679925775686948</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5.832576259080303</v>
+        <v>5.794301640587204</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7.689829405593613</v>
+        <v>7.609706662162669</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>10.29996822244238</v>
+        <v>10.07665551793382</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>6.839922053919295</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.927810949027692</v>
+        <v>5.92781094902769</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>5.991719744211814</v>
@@ -1089,7 +1089,7 @@
         <v>9.047598045793789</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>8.596251495531613</v>
+        <v>8.596251495531616</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>4.970541166920849</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.390666007599873</v>
+        <v>3.416342046993506</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.370432870918895</v>
+        <v>4.40300754816862</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.110415400135587</v>
+        <v>6.170757140377808</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.912389374956732</v>
+        <v>4.867685401875625</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>5.316015414325744</v>
+        <v>5.280968806249196</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.344002238201039</v>
+        <v>6.363924478254409</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>8.407349955184616</v>
+        <v>8.371521803389452</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>7.655184192086074</v>
+        <v>7.560035852650167</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>4.519022893917967</v>
+        <v>4.526042396223411</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5.569550624460798</v>
+        <v>5.572315584374123</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7.505140234487995</v>
+        <v>7.571240662646511</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.504739007416373</v>
+        <v>6.575201300198262</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.554812598127802</v>
+        <v>4.622287955283152</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.16337792082223</v>
+        <v>5.170673627920723</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.626152729352368</v>
+        <v>7.710614545613813</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.579388904465044</v>
+        <v>7.516162634538963</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>6.840049027633473</v>
+        <v>6.860110169422545</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.186303839254511</v>
+        <v>7.216848236074392</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>9.877633264901734</v>
+        <v>9.851223115674461</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>9.731467885032064</v>
+        <v>9.664442515569636</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>5.506055011292158</v>
+        <v>5.523950008508804</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6.142962438138754</v>
+        <v>6.163301094062946</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8.613350202063609</v>
+        <v>8.611047985444834</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>8.20566677123815</v>
+        <v>8.204996731799971</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>7.719780896884692</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>7.307324750350114</v>
+        <v>7.307324750350116</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>6.014503881810742</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.576502947800534</v>
+        <v>3.603688806180021</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.607170657106566</v>
+        <v>4.644924999050073</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.412747995318651</v>
+        <v>5.394678737878342</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.424728724984286</v>
+        <v>4.515790286898017</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.690154386527046</v>
+        <v>5.624852545561352</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.174381413049178</v>
+        <v>6.188649395113885</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>6.99535219569414</v>
+        <v>7.011187858493938</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>6.591361084930066</v>
+        <v>6.568533324982452</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.324945532054758</v>
+        <v>5.341319671659235</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5.870926163888032</v>
+        <v>5.892120868535116</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6.603620166999294</v>
+        <v>6.594284462324433</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>6.266577903497589</v>
+        <v>6.364057928227362</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.874222078084009</v>
+        <v>6.706189277504303</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.969368473611935</v>
+        <v>5.918992526854229</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.671807173406269</v>
+        <v>7.466094609319228</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.279965358350841</v>
+        <v>8.536745412934428</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.361503309518593</v>
+        <v>7.495287717072859</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.053481776384911</v>
+        <v>7.126287846761256</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.50406083214199</v>
+        <v>8.600736274737393</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.27742918589154</v>
+        <v>8.204658525666414</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.790497521168809</v>
+        <v>6.855667795113828</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.626334070706521</v>
+        <v>6.649650095623913</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7.843751378036683</v>
+        <v>7.865900609369971</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>7.901385291904529</v>
+        <v>8.029178427664453</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>3.533911565179412</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.678636694068585</v>
+        <v>2.678636694068586</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>6.036499185754614</v>
@@ -1361,7 +1361,7 @@
         <v>8.356137979372077</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>6.280970405817353</v>
+        <v>6.280970405817352</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>6.003451636600145</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.327902907694588</v>
+        <v>2.266759909908676</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.519074435390261</v>
+        <v>1.505269040992921</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.880249057526991</v>
+        <v>2.88157280480217</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>5.369915154646836</v>
+        <v>5.298513824975259</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>6.270634070534635</v>
+        <v>6.259862625564162</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>7.445092550790999</v>
+        <v>7.437564998023503</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>4.961953207189607</v>
+        <v>5.077542220247266</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>5.28007979208394</v>
+        <v>5.34307789670314</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6.126690156470161</v>
+        <v>6.133959517652016</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7.0219828256637</v>
+        <v>7.142123741741734</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>4.718871357465554</v>
+        <v>4.697148076285715</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>9.111760212077101</v>
+        <v>9.303408060637436</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.775395605540743</v>
+        <v>3.882600463449592</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.408636492089937</v>
+        <v>4.538128561947199</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.663663289571581</v>
+        <v>7.213432816638708</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>6.889351570409842</v>
+        <v>6.807542533978148</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>7.300623922685419</v>
+        <v>7.190677242144463</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>9.520624385446105</v>
+        <v>9.460160030993665</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>7.929248010620146</v>
+        <v>8.171439686504373</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>6.747689042710424</v>
+        <v>6.811233947356286</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7.11407395174674</v>
+        <v>7.141013788153068</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8.95270723453406</v>
+        <v>8.85582571054835</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>7.450044870786414</v>
+        <v>7.435838554999601</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>6.269227199767784</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5.738542510982046</v>
+        <v>5.738542510982045</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>5.826228314635591</v>
@@ -1509,7 +1509,7 @@
         <v>7.56706458574213</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>6.951266314754175</v>
+        <v>6.951266314754177</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.349190805251983</v>
+        <v>3.31901885244915</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.49201902693467</v>
+        <v>4.485314338831506</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.859605927439246</v>
+        <v>5.899904262713217</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.075588146070162</v>
+        <v>5.002962815359835</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>5.509392265203328</v>
+        <v>5.479285065372231</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.368943158047477</v>
+        <v>6.373230790881029</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>8.072521211916403</v>
+        <v>8.085747602994061</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>7.140818048352871</v>
+        <v>7.12165706671374</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.719662269770553</v>
+        <v>4.71111596276105</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5.692310114757551</v>
+        <v>5.695195738291819</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7.300796785739088</v>
+        <v>7.314268134719781</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>6.484558331876149</v>
+        <v>6.502296279774741</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.02254048620712</v>
+        <v>3.940310998409816</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.946980394629359</v>
+        <v>4.970967950511612</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.676045521723597</v>
+        <v>6.676267671346819</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.775682276033081</v>
+        <v>6.638496414275649</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.228678563486088</v>
+        <v>6.168332994390355</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.816130264392243</v>
+        <v>6.802455243524966</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.832656886371208</v>
+        <v>8.841291079473095</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.302945511736164</v>
+        <v>8.408445873853147</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.218326459995833</v>
+        <v>5.240272748055765</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6.011450645950599</v>
+        <v>6.034405811414828</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7.853219485867814</v>
+        <v>7.872040480572049</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>7.42468643956857</v>
+        <v>7.532480491674408</v>
       </c>
     </row>
     <row r="25">
